--- a/追加の仕様書/射撃フェーズ外したとき.xlsx
+++ b/追加の仕様書/射撃フェーズ外したとき.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11E038-097B-485F-8EB4-64EFFB0621A3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E115D4-751A-4291-A1DD-878161B70F23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>射撃フェーズ外した場合</t>
     <rPh sb="0" eb="2">
@@ -110,25 +110,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面が真っ白になる</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームオーバー表示（画像）</t>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すこしずつ画面が真っ白になる</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケラン持っているアニメーションをさせる</t>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示後タイトルへ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -639,8 +656,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266980</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40346</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>224121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -655,8 +672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2049415" y="4736310"/>
-          <a:ext cx="1050834" cy="852767"/>
+          <a:off x="2310513" y="4475212"/>
+          <a:ext cx="528638" cy="852767"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1804,9 +1821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1821,8 +1838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2919413" y="1343025"/>
-          <a:ext cx="2795587" cy="876300"/>
+          <a:off x="2910448" y="1329018"/>
+          <a:ext cx="2636464" cy="744070"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7271,6 +7288,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F7304F-2A40-4720-AACD-3BF9E9A2A2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2815198" y="2451287"/>
+          <a:ext cx="3392861" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7542,7 +7614,7 @@
   <dimension ref="G1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7565,6 +7637,11 @@
     <row r="10" spans="7:10">
       <c r="I10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10">
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:10">
@@ -7599,17 +7676,17 @@
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="9:9">
-      <c r="I112">
-        <v>4</v>
+      <c r="I112" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
